--- a/media/PRODUCT.xlsx
+++ b/media/PRODUCT.xlsx
@@ -22,57 +22,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>PRICE</t>
   </si>
   <si>
-    <t>Mercury</t>
-  </si>
-  <si>
-    <t>Dodge</t>
-  </si>
-  <si>
     <t>Buick</t>
   </si>
   <si>
     <t>Mazda</t>
   </si>
   <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
-    <t>Audi</t>
-  </si>
-  <si>
-    <t>Chevrolet</t>
-  </si>
-  <si>
     <t>Pontiac</t>
   </si>
   <si>
     <t>Ford</t>
   </si>
   <si>
-    <t>GMC</t>
-  </si>
-  <si>
-    <t>Mitsubishi</t>
-  </si>
-  <si>
-    <t>Mercedes-Benz</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>Hyundai</t>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Mazda5</t>
+  </si>
+  <si>
+    <t>Subaru</t>
+  </si>
+  <si>
+    <t>Impreza</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Tundra</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Esteem</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>240SX</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>F350</t>
+  </si>
+  <si>
+    <t>Isuzu</t>
+  </si>
+  <si>
+    <t>Rodeo</t>
+  </si>
+  <si>
+    <t>Skyhawk</t>
+  </si>
+  <si>
+    <t>Firebird</t>
+  </si>
+  <si>
+    <t>Forester</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Blackwood</t>
+  </si>
+  <si>
+    <t>Rendezvous</t>
+  </si>
+  <si>
+    <t>MAKE</t>
+  </si>
+  <si>
+    <t>MODEL</t>
   </si>
 </sst>
 </file>
@@ -154,18 +190,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:C21" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:C21"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D21" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="A1:D21"/>
+  <tableColumns count="4">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/data/row/ID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="NAME" name="NAME">
+    <tableColumn id="2" uniqueName="NAME" name="MAKE">
       <xmlColumnPr mapId="1" xpath="/data/row/NAME" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="PRICE" name="PRICE">
+    <tableColumn id="3" uniqueName="PRICE" name="MODEL">
       <xmlColumnPr mapId="1" xpath="/data/row/PRICE" xmlDataType="integer"/>
     </tableColumn>
+    <tableColumn id="4" uniqueName="4" name="PRICE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -458,248 +495,312 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>7468</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>9771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>4125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>2540</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>3349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>5991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>2903</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>7147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>8081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>5035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>3321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>9772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>8861</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>3711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>5048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>9414</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>9041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>5045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>8077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>7872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>9859</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>5760</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
-        <v>6441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21">
-        <v>4564</v>
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>1603</v>
       </c>
     </row>
   </sheetData>
